--- a/backend/static/Invoice Template.xlsx
+++ b/backend/static/Invoice Template.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongxiaomu/Desktop/iMIS/backend/static/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AA92BF-7BAF-564C-8FB5-F2379382709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="605"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -176,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -271,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -300,17 +311,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -398,8 +398,254 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
       </left>
       <right/>
       <top/>
@@ -407,248 +653,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
         <color theme="1" tint="0.34998626667073579"/>
       </bottom>
       <diagonal/>
@@ -658,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -682,170 +705,147 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,83 +855,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -970,7 +904,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="TQSignatureSeal.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1000,9 +934,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1040,7 +974,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1112,7 +1046,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1285,40 +1219,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9.28515625" style="1"/>
+    <col min="11" max="11" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.45">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
@@ -1326,14 +1260,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="25"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -1347,17 +1281,17 @@
       <c r="P2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88"/>
-    </row>
-    <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="63"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="25"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1371,17 +1305,17 @@
       <c r="P3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="95"/>
-    </row>
-    <row r="4" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="25"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1396,12 +1330,12 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1416,74 +1350,74 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
       <c r="M6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-    </row>
-    <row r="7" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-    </row>
-    <row r="8" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-    </row>
-    <row r="9" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-    </row>
-    <row r="10" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1493,111 +1427,111 @@
       <c r="M10" s="13"/>
       <c r="N10" s="14"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-    </row>
-    <row r="11" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69" t="s">
+      <c r="E11" s="65"/>
+      <c r="F11" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="65"/>
+      <c r="H11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="69" t="s">
+      <c r="I11" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="69"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="73" t="s">
+      <c r="J11" s="65"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="74"/>
-      <c r="O11" s="91" t="s">
+      <c r="N11" s="71"/>
+      <c r="O11" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="73" t="s">
+      <c r="P11" s="61"/>
+      <c r="Q11" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="74"/>
-    </row>
-    <row r="12" spans="1:18" s="44" customFormat="1" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70" t="s">
+      <c r="R11" s="71"/>
+    </row>
+    <row r="12" spans="1:18" s="35" customFormat="1" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="74"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="76"/>
-    </row>
-    <row r="13" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="68"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-    </row>
-    <row r="14" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="77" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="78"/>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="29" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="77" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="78"/>
-      <c r="G14" s="85" t="s">
+      <c r="G14" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="83" t="s">
+      <c r="H14" s="83"/>
+      <c r="I14" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="83" t="s">
+      <c r="J14" s="56" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="81" t="s">
@@ -1606,253 +1540,157 @@
       <c r="L14" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="22" t="s">
+      <c r="O14" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="67" t="s">
+      <c r="R14" s="72" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" s="57"/>
       <c r="B15" s="79"/>
       <c r="C15" s="80"/>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="30" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="79"/>
       <c r="F15" s="80"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="82"/>
       <c r="L15" s="82"/>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="16" t="s">
+      <c r="P15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="16" t="s">
+      <c r="Q15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="68"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-    </row>
-    <row r="17" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-    </row>
-    <row r="18" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-    </row>
-    <row r="19" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="R15" s="73"/>
+    </row>
+    <row r="16" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="65" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="35">
-        <f>SUM(R16:R18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
+      <c r="Q16" s="85"/>
+      <c r="R16" s="27"/>
+    </row>
+    <row r="17" spans="1:14" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="59" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="59"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="41"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="51"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:14" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="P19:Q19"/>
+  <mergeCells count="37">
     <mergeCell ref="R14:R15"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F12:G12"/>
@@ -1868,12 +1706,28 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="E14:F15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="J14:J15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -1884,12 +1738,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1898,12 +1752,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/static/Invoice Template.xlsx
+++ b/backend/static/Invoice Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongxiaomu/Desktop/iMIS/backend/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AA92BF-7BAF-564C-8FB5-F2379382709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495B8D51-99B9-D846-9CE1-6D7A7A1D967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>ITE, INC.</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>BASIC</t>
-  </si>
-  <si>
-    <t>W/SUR</t>
   </si>
   <si>
     <t>INVOICE NUMBER:</t>
@@ -681,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -784,88 +781,87 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1226,7 +1222,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1263,7 +1259,7 @@
     <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6"/>
@@ -1279,15 +1275,15 @@
       <c r="N2" s="9"/>
       <c r="O2" s="8"/>
       <c r="P2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
+        <v>15</v>
+      </c>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="77"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6"/>
@@ -1303,15 +1299,15 @@
       <c r="N3" s="9"/>
       <c r="O3" s="8"/>
       <c r="P3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
+        <v>16</v>
+      </c>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="84"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6"/>
@@ -1354,70 +1350,70 @@
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
       <c r="M6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1427,67 +1423,67 @@
       <c r="M10" s="13"/>
       <c r="N10" s="14"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65" t="s">
+      <c r="G11" s="59"/>
+      <c r="H11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="64"/>
+      <c r="O11" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="64"/>
+    </row>
+    <row r="12" spans="1:18" s="35" customFormat="1" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="71"/>
-      <c r="O11" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="71"/>
-    </row>
-    <row r="12" spans="1:18" s="35" customFormat="1" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="64"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="31"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="68"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="66"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
@@ -1510,34 +1506,34 @@
       <c r="R13" s="17"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="68"/>
+      <c r="G14" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="78"/>
-      <c r="G14" s="83" t="s">
+      <c r="H14" s="75"/>
+      <c r="I14" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="83"/>
-      <c r="I14" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="81" t="s">
+      <c r="J14" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="71" t="s">
         <v>13</v>
       </c>
       <c r="M14" s="19" t="s">
@@ -1550,30 +1546,30 @@
         <v>9</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="72" t="s">
-        <v>32</v>
+      <c r="R14" s="57" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
+        <v>26</v>
+      </c>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
       <c r="M15" s="15" t="s">
         <v>4</v>
       </c>
@@ -1584,12 +1580,10 @@
         <v>10</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" s="73"/>
+        <v>18</v>
+      </c>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="58"/>
     </row>
     <row r="16" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
@@ -1609,15 +1603,15 @@
       <c r="M16" s="13"/>
       <c r="N16" s="14"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="85"/>
+      <c r="P16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="56"/>
       <c r="R16" s="27"/>
     </row>
     <row r="17" spans="1:14" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A17" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
@@ -1629,36 +1623,36 @@
       <c r="I17" s="52"/>
       <c r="J17" s="53"/>
       <c r="K17" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="47"/>
       <c r="E18" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="H18" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="I18" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="J18" s="28" t="s">
         <v>44</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>45</v>
       </c>
       <c r="N18" s="3"/>
     </row>
@@ -1690,7 +1684,29 @@
     </row>
     <row r="21" spans="1:14" ht="14" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="R14:R15"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F12:G12"/>
@@ -1706,28 +1722,7 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="G14:H15"/>
     <mergeCell ref="E14:F15"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="I14:I15"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="J14:J15"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
